--- a/Properties/Orion_McKinney/OrionMcKinney_WasteAnalysis_Validated.xlsx
+++ b/Properties/Orion_McKinney/OrionMcKinney_WasteAnalysis_Validated.xlsx
@@ -13,6 +13,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="QUALITY_CHECK" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DOCUMENTATION_NOTES" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CONTRACT_TERMS" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REGULATORY_COMPLIANCE" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -22,7 +23,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="10">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -52,8 +53,24 @@
       <color rgb="00FFFFFF"/>
       <sz val="12"/>
     </font>
+    <font>
+      <b val="1"/>
+      <color rgb="001E3A8A"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <b val="1"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00F59E0B"/>
+    </font>
+    <font>
+      <i val="1"/>
+      <sz val="9"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -72,6 +89,18 @@
         <bgColor rgb="00D9E1F2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FEE2E2"/>
+        <bgColor rgb="00FEE2E2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DBEAFE"/>
+        <bgColor rgb="00DBEAFE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -85,11 +114,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -482,9 +517,7 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-    </row>
+    <row r="3"/>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
@@ -526,9 +559,7 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr"/>
-    </row>
+    <row r="8"/>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
@@ -572,9 +603,7 @@
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr"/>
-    </row>
+    <row r="13"/>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
@@ -616,9 +645,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr"/>
-    </row>
+    <row r="18"/>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
@@ -670,9 +697,7 @@
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr"/>
-    </row>
+    <row r="23"/>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
@@ -724,9 +749,7 @@
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr"/>
-    </row>
+    <row r="29"/>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
@@ -848,9 +871,7 @@
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr"/>
-    </row>
+    <row r="41"/>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
@@ -1458,9 +1479,7 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-    </row>
+    <row r="3"/>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
@@ -1504,9 +1523,7 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr"/>
-    </row>
+    <row r="8"/>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
@@ -1567,9 +1584,7 @@
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr"/>
-    </row>
+    <row r="14"/>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
@@ -1631,9 +1646,7 @@
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr"/>
-    </row>
+    <row r="20"/>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
@@ -1717,9 +1730,7 @@
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr"/>
-    </row>
+    <row r="27"/>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
@@ -1818,9 +1829,7 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-    </row>
+    <row r="3"/>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
@@ -1947,9 +1956,7 @@
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr"/>
-    </row>
+    <row r="12"/>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
@@ -2045,9 +2052,7 @@
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr"/>
-    </row>
+    <row r="18"/>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
@@ -2097,9 +2102,7 @@
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr"/>
-    </row>
+    <row r="22"/>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
@@ -2161,9 +2164,7 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr"/>
-    </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
@@ -2217,9 +2218,7 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr"/>
-    </row>
+    <row r="8"/>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
@@ -2275,9 +2274,7 @@
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr"/>
-    </row>
+    <row r="14"/>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
@@ -2333,9 +2330,7 @@
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr"/>
-    </row>
+    <row r="20"/>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
@@ -2391,9 +2386,7 @@
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr"/>
-    </row>
+    <row r="26"/>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
@@ -2461,9 +2454,7 @@
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr"/>
-    </row>
+    <row r="33"/>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
@@ -2507,9 +2498,7 @@
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr"/>
-    </row>
+    <row r="38"/>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
@@ -2553,9 +2542,7 @@
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr"/>
-    </row>
+    <row r="43"/>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
@@ -2641,9 +2628,7 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr"/>
-    </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
@@ -2687,9 +2672,7 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr"/>
-    </row>
+    <row r="7"/>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
@@ -2733,9 +2716,7 @@
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr"/>
-    </row>
+    <row r="12"/>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
@@ -2791,9 +2772,7 @@
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr"/>
-    </row>
+    <row r="18"/>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
@@ -2864,4 +2843,229 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="40" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>REGULATORY COMPLIANCE ANALYSIS - Orion McKinney</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Research Date:</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2025-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Confidence Level:</t>
+        </is>
+      </c>
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>LOW</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="inlineStr">
+        <is>
+          <t>PROPERTY INFORMATION</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Location:</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>McKinney, TX</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>State:</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Units:</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>RECYCLING REQUIREMENTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Status:</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>VERIFICATION REQUIRED</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>TEXAS FINDINGS</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="8" t="inlineStr">
+        <is>
+          <t>[!] LIMITED INFORMATION AVAILABLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Municipal ordinances not publicly accessible online</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Manual verification required with city solid waste department</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="inlineStr">
+        <is>
+          <t>Contact for Verification:</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>McKinney Solid Waste: 972-547-7385</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="inlineStr">
+        <is>
+          <t>RECOMMENDED NEXT STEPS</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>1. Contact city solid waste department (contact info above)</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2. Request solid waste ordinance and multifamily requirements</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>3. Verify current waste hauler licensing status</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>4. Update regulatory compliance summary with findings</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="9" t="inlineStr">
+        <is>
+          <t>Generated by: WasteWise Regulatory Compliance Analysis</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="9" t="inlineStr">
+        <is>
+          <t>For detailed findings, see: Properties/Orion_McKinney/Regulatory_Compliance_Summary.md</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A14:D14"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>